--- a/src/analysis_examples/circadb/results_lomb/cosinor_10367673_plekhg1_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10367673_plekhg1_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.31367299596781656, 0.40938786800227905]</t>
+          <t>[0.3141014859518997, 0.40895937801819593]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4.39648317751562e-13</v>
+        <v>3.69038133385402e-13</v>
       </c>
       <c r="N2" t="n">
-        <v>4.39648317751562e-13</v>
+        <v>3.69038133385402e-13</v>
       </c>
       <c r="O2" t="n">
         <v>-1.069210712933463</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.2075791581366175, -0.9308422677303092]</t>
+          <t>[-1.1950002085726945, -0.9434212172942322]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>2.828848266744899e-13</v>
+        <v>4.374278717023117e-14</v>
       </c>
       <c r="R2" t="n">
-        <v>2.828848266744899e-13</v>
+        <v>4.374278717023117e-14</v>
       </c>
       <c r="S2" t="n">
         <v>0.4323778505873381</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.40674895418303547, 0.4580067469916408]</t>
+          <t>[0.4067331363428134, 0.4580225648318629]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>4.272972972973111</v>
       </c>
       <c r="X2" t="n">
-        <v>3.72000000000012</v>
+        <v>3.770270270270392</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.825945945946103</v>
+        <v>4.775675675675831</v>
       </c>
     </row>
   </sheetData>
